--- a/Motor_Controller_Code_2020/Controller Status Codes.xlsx
+++ b/Motor_Controller_Code_2020/Controller Status Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Projects\Go-Kart 2020\Motor Controller\Motor_Controller_Code_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Motor-Controller-main\Motor-Controller-main\Motor_Controller_Code_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA52A2-2BBE-4AE5-872D-BB9E58A5A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E6D0B-256B-4FAF-A094-4B913E471863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Code #</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Warning</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Yellow: On Red: Off</t>
+  </si>
+  <si>
+    <t>Yellow: Off Red: Off</t>
+  </si>
+  <si>
+    <t>Yellow: Off Red: On Solid</t>
+  </si>
+  <si>
+    <t>Yellow: On Red: On Blink</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +358,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -352,32 +394,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,19 +689,21 @@
     <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,407 +719,450 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <f>A3+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <f t="shared" ref="A5:A34" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
